--- a/data/trans_camb/P1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,31</t>
+          <t>-4,63; -0,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,61</t>
+          <t>0,09; 6,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,86</t>
+          <t>-3,15; 3,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,46</t>
+          <t>-0,1; 4,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,81</t>
+          <t>3,04; 8,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,11</t>
+          <t>0,73; 7,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,42</t>
+          <t>-1,62; 1,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,49</t>
+          <t>2,26; 6,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,13</t>
+          <t>-0,7; 4,17</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,3; -4,25</t>
+          <t>-84,47; 4,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 248,28</t>
+          <t>-1,6; 256,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,67; 165,78</t>
+          <t>-71,69; 154,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 400,22</t>
+          <t>-15,85; 461,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,94; 877,73</t>
+          <t>94,54; 857,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 792,79</t>
+          <t>19,77; 677,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,79; 68,02</t>
+          <t>-46,6; 69,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,52; 308,64</t>
+          <t>58,68; 319,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 192,53</t>
+          <t>-23,73; 191,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,02</t>
+          <t>0,1; 5,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 7,12</t>
+          <t>0,28; 6,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,08</t>
+          <t>4,22; 13,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,04</t>
+          <t>-1,33; 3,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,94</t>
+          <t>0,88; 6,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,56</t>
+          <t>1,72; 8,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,91</t>
+          <t>0,15; 4,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,57</t>
+          <t>1,29; 5,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,36</t>
+          <t>3,67; 9,29</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 104,36</t>
+          <t>1,1; 104,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 124,47</t>
+          <t>2,17; 118,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 241,03</t>
+          <t>51,5; 225,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 105,41</t>
+          <t>-28,5; 133,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 226,44</t>
+          <t>17,37; 232,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 290,46</t>
+          <t>33,15; 295,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 83,16</t>
+          <t>1,52; 90,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 117,54</t>
+          <t>19,2; 120,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,2; 193,34</t>
+          <t>55,16; 187,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,65</t>
+          <t>-4,18; 1,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,78</t>
+          <t>1,41; 7,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 13,35</t>
+          <t>5,48; 13,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,96</t>
+          <t>-1,86; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,29</t>
+          <t>0,66; 4,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,17</t>
+          <t>1,86; 5,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,57</t>
+          <t>-2,42; 0,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,44</t>
+          <t>1,79; 5,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,67</t>
+          <t>4,35; 8,61</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,37; 13,02</t>
+          <t>-54,6; 24,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,65; 163,91</t>
+          <t>16,57; 161,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,28; 272,89</t>
+          <t>72,18; 284,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 71,83</t>
+          <t>-67,72; 90,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,47; 321,26</t>
+          <t>16,71; 324,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,57; 458,13</t>
+          <t>55,27; 422,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 19,77</t>
+          <t>-49,16; 14,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,82; 170,44</t>
+          <t>33,69; 165,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,6; 272,73</t>
+          <t>88,87; 252,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,69</t>
+          <t>-0,92; 5,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,11</t>
+          <t>3,01; 10,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 17,39</t>
+          <t>7,67; 17,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,62</t>
+          <t>-2,7; 2,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,36</t>
+          <t>-2,27; 3,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,8</t>
+          <t>-0,3; 4,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,36</t>
+          <t>-0,94; 3,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,02</t>
+          <t>1,34; 5,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,76</t>
+          <t>4,96; 9,9</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 125,37</t>
+          <t>-13,46; 129,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,69; 219,07</t>
+          <t>40,36; 237,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>100,92; 369,48</t>
+          <t>100,16; 374,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 75,49</t>
+          <t>-45,28; 84,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 96,9</t>
+          <t>-35,81; 100,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 141,52</t>
+          <t>-7,69; 134,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 76,72</t>
+          <t>-14,65; 78,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,87; 133,35</t>
+          <t>18,86; 136,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>74,34; 221,88</t>
+          <t>77,65; 233,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,6</t>
+          <t>-3,82; 3,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 8,86</t>
+          <t>0,74; 8,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,01; 17,15</t>
+          <t>8,55; 16,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,66</t>
+          <t>-4,33; 3,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 11,02</t>
+          <t>2,21; 10,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,91</t>
+          <t>4,82; 12,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,05</t>
+          <t>-2,62; 2,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,83</t>
+          <t>2,75; 8,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,77; 13,36</t>
+          <t>7,76; 13,4</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,31; 68,68</t>
+          <t>-41,99; 70,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,53; 181,73</t>
+          <t>6,5; 168,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>98,83; 356,55</t>
+          <t>93,02; 342,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 55,97</t>
+          <t>-38,62; 47,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,12; 155,62</t>
+          <t>16,43; 156,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>40,51; 177,11</t>
+          <t>42,14; 193,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 47,54</t>
+          <t>-29,01; 48,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>28,56; 135,48</t>
+          <t>29,93; 136,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>82,44; 211,19</t>
+          <t>81,64; 215,61</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 7,53</t>
+          <t>-1,71; 7,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,54</t>
+          <t>2,19; 11,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,49; 15,88</t>
+          <t>7,63; 15,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 8,14</t>
+          <t>-1,66; 7,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 10,44</t>
+          <t>-0,07; 10,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 18,62</t>
+          <t>-0,23; 18,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,48</t>
+          <t>-0,84; 6,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,18</t>
+          <t>2,2; 9,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,73; 15,84</t>
+          <t>4,75; 15,96</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 64,31</t>
+          <t>-11,18; 61,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,4; 90,29</t>
+          <t>13,91; 99,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>44,18; 136,09</t>
+          <t>44,55; 135,2</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 32,02</t>
+          <t>-5,64; 31,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 41,85</t>
+          <t>-0,35; 40,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,39; 71,69</t>
+          <t>0,03; 71,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 31,52</t>
+          <t>-3,96; 29,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,48; 46,18</t>
+          <t>9,41; 45,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>24,25; 76,32</t>
+          <t>22,56; 77,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,48</t>
+          <t>-0,38; 2,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,81</t>
+          <t>3,71; 6,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,28</t>
+          <t>8,76; 12,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,7</t>
+          <t>-0,23; 2,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,98</t>
+          <t>2,91; 6,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,14</t>
+          <t>6,64; 10,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,12</t>
+          <t>0,08; 2,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,01</t>
+          <t>3,73; 5,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,21; 10,69</t>
+          <t>8,12; 10,82</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 37,52</t>
+          <t>-4,82; 35,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>47,44; 103,41</t>
+          <t>44,79; 101,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>113,53; 190,41</t>
+          <t>107,25; 186,23</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,63</t>
+          <t>-2,48; 33,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>31,07; 74,0</t>
+          <t>30,8; 76,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>71,77; 124,56</t>
+          <t>71,19; 126,13</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,79; 28,32</t>
+          <t>0,9; 27,62</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>42,87; 79,5</t>
+          <t>44,05; 78,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>96,85; 141,62</t>
+          <t>94,7; 144,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,32</t>
+          <t>-4,51; -0,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 6,72</t>
+          <t>0,25; 6,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,64</t>
+          <t>-3,21; 3,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,58</t>
+          <t>-0,1; 4,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,75</t>
+          <t>2,96; 8,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,47</t>
+          <t>0,71; 7,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,39</t>
+          <t>-1,76; 1,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,61</t>
+          <t>2,42; 6,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,17</t>
+          <t>-0,72; 4,28</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-84,47; 4,13</t>
+          <t>-85,78; -4,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 256,72</t>
+          <t>0,51; 263,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 154,84</t>
+          <t>-74,47; 136,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 461,32</t>
+          <t>-9,46; 397,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,54; 857,53</t>
+          <t>102,79; 774,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,77; 677,68</t>
+          <t>6,24; 703,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 69,19</t>
+          <t>-49,13; 78,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,68; 319,34</t>
+          <t>61,7; 346,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 191,04</t>
+          <t>-20,49; 199,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,82</t>
+          <t>0,01; 5,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,85</t>
+          <t>0,46; 7,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,54</t>
+          <t>4,27; 13,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,56</t>
+          <t>-1,31; 3,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 6,31</t>
+          <t>1,01; 6,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,29</t>
+          <t>1,79; 8,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,12</t>
+          <t>-0,01; 4,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,63</t>
+          <t>1,47; 5,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,29</t>
+          <t>3,79; 9,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 104,29</t>
+          <t>-0,65; 112,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 118,21</t>
+          <t>5,85; 124,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,5; 225,03</t>
+          <t>51,23; 232,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 133,15</t>
+          <t>-29,44; 108,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,37; 232,47</t>
+          <t>17,14; 230,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,15; 295,04</t>
+          <t>33,15; 272,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 90,24</t>
+          <t>-1,0; 83,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 120,24</t>
+          <t>22,77; 117,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55,16; 187,74</t>
+          <t>55,73; 196,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,14</t>
+          <t>-4,16; 1,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 7,75</t>
+          <t>1,4; 7,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 13,47</t>
+          <t>5,38; 13,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,06</t>
+          <t>-1,9; 1,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,42</t>
+          <t>0,55; 4,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,97</t>
+          <t>2,0; 6,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,48</t>
+          <t>-2,49; 0,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,79</t>
+          <t>1,82; 5,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,61</t>
+          <t>4,19; 8,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 24,66</t>
+          <t>-53,23; 23,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 161,66</t>
+          <t>14,66; 158,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72,18; 284,79</t>
+          <t>65,96; 260,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,72; 90,13</t>
+          <t>-68,25; 105,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,71; 324,75</t>
+          <t>15,53; 313,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,27; 422,03</t>
+          <t>65,04; 494,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 14,28</t>
+          <t>-50,39; 17,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,69; 165,84</t>
+          <t>34,84; 177,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,87; 252,26</t>
+          <t>82,75; 261,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,96</t>
+          <t>-1,04; 5,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 10,3</t>
+          <t>3,32; 10,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,67; 17,16</t>
+          <t>7,66; 17,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,85</t>
+          <t>-2,81; 2,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,31</t>
+          <t>-2,33; 3,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,56</t>
+          <t>-0,13; 4,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,27</t>
+          <t>-0,79; 3,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,94</t>
+          <t>1,51; 6,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,9</t>
+          <t>5,05; 9,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 129,28</t>
+          <t>-13,68; 123,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,36; 237,2</t>
+          <t>40,77; 229,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>100,16; 374,34</t>
+          <t>97,58; 375,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,28; 84,56</t>
+          <t>-45,25; 76,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 100,5</t>
+          <t>-36,5; 92,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 134,69</t>
+          <t>-4,15; 153,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 78,05</t>
+          <t>-13,04; 76,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,86; 136,36</t>
+          <t>23,31; 142,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>77,65; 233,76</t>
+          <t>74,18; 228,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,69</t>
+          <t>-3,56; 3,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,62</t>
+          <t>0,78; 8,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,55; 16,8</t>
+          <t>8,84; 16,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,48</t>
+          <t>-3,66; 4,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,79</t>
+          <t>2,43; 11,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,27</t>
+          <t>4,37; 12,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,98</t>
+          <t>-2,62; 2,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,63</t>
+          <t>2,9; 8,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,4</t>
+          <t>7,67; 13,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 70,78</t>
+          <t>-42,79; 79,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>6,5; 168,78</t>
+          <t>7,35; 169,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>93,02; 342,29</t>
+          <t>89,14; 333,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 47,81</t>
+          <t>-34,53; 63,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,43; 156,25</t>
+          <t>21,31; 171,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>42,14; 193,67</t>
+          <t>35,07; 183,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 48,3</t>
+          <t>-29,29; 42,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>29,93; 136,2</t>
+          <t>31,32; 134,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>81,64; 215,61</t>
+          <t>81,68; 210,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 7,35</t>
+          <t>-1,43; 7,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,19; 11,21</t>
+          <t>1,86; 10,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,63; 15,44</t>
+          <t>7,56; 15,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 7,91</t>
+          <t>-2,16; 7,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 10,14</t>
+          <t>-0,34; 9,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 18,84</t>
+          <t>-0,57; 18,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,15</t>
+          <t>-0,69; 6,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,2; 9,05</t>
+          <t>2,26; 9,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,75; 15,96</t>
+          <t>4,27; 15,82</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 61,99</t>
+          <t>-9,74; 63,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,91; 99,54</t>
+          <t>10,03; 89,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>44,55; 135,2</t>
+          <t>44,39; 133,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 31,57</t>
+          <t>-7,25; 31,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 40,08</t>
+          <t>-1,27; 37,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,03; 71,32</t>
+          <t>-0,86; 70,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 29,82</t>
+          <t>-2,9; 32,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,41; 45,53</t>
+          <t>9,43; 45,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,56; 77,52</t>
+          <t>20,06; 76,28</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,35</t>
+          <t>-0,4; 2,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,63</t>
+          <t>3,9; 6,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,35</t>
+          <t>8,81; 12,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,64</t>
+          <t>-0,25; 2,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,17</t>
+          <t>2,94; 6,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,02</t>
+          <t>6,55; 10,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,11</t>
+          <t>0,05; 1,99</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,98</t>
+          <t>3,83; 5,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,82</t>
+          <t>8,25; 10,77</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 35,81</t>
+          <t>-5,39; 36,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>44,79; 101,2</t>
+          <t>48,45; 104,15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>107,25; 186,23</t>
+          <t>109,48; 185,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,27</t>
+          <t>-2,58; 33,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>30,8; 76,54</t>
+          <t>31,76; 76,65</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>71,19; 126,13</t>
+          <t>70,98; 126,56</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,9; 27,62</t>
+          <t>0,61; 26,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>44,05; 78,93</t>
+          <t>45,3; 80,16</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>94,7; 144,11</t>
+          <t>96,44; 143,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; -0,37</t>
+          <t>-4,57; -0,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,85</t>
+          <t>0,25; 6,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,59</t>
+          <t>-3,15; 3,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,56</t>
+          <t>-0,08; 4,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,86</t>
+          <t>2,89; 8,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,42</t>
+          <t>0,66; 8,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,42</t>
+          <t>-1,78; 1,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,79</t>
+          <t>2,25; 6,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,28</t>
+          <t>-0,84; 4,13</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,78; -4,08</t>
+          <t>-87,3; -4,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 263,56</t>
+          <t>-1,33; 248,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,47; 136,43</t>
+          <t>-66,67; 165,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 397,89</t>
+          <t>-18,12; 400,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>102,79; 774,23</t>
+          <t>91,94; 877,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 703,16</t>
+          <t>18,13; 792,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,13; 78,8</t>
+          <t>-51,79; 68,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,7; 346,19</t>
+          <t>56,52; 308,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 199,88</t>
+          <t>-27,65; 192,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,98</t>
+          <t>-0,36; 6,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 7,13</t>
+          <t>0,49; 7,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,32</t>
+          <t>4,21; 14,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,13</t>
+          <t>-1,68; 3,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,41</t>
+          <t>0,91; 5,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,2</t>
+          <t>2,12; 8,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,15</t>
+          <t>-0,16; 3,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,63</t>
+          <t>1,3; 5,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 9,32</t>
+          <t>3,78; 9,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 112,88</t>
+          <t>-5,03; 104,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 124,36</t>
+          <t>4,24; 124,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,23; 232,69</t>
+          <t>48,64; 241,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 108,6</t>
+          <t>-34,84; 105,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,14; 230,13</t>
+          <t>16,46; 226,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,15; 272,79</t>
+          <t>34,91; 290,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 83,84</t>
+          <t>-3,16; 83,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 117,88</t>
+          <t>19,08; 117,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55,73; 196,33</t>
+          <t>60,2; 193,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,09</t>
+          <t>-4,41; 0,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,94</t>
+          <t>1,26; 7,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,38; 13,32</t>
+          <t>5,5; 13,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,12</t>
+          <t>-1,91; 0,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,43</t>
+          <t>0,57; 4,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,05</t>
+          <t>1,89; 6,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,55</t>
+          <t>-2,36; 0,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,63</t>
+          <t>1,76; 5,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,56</t>
+          <t>4,14; 8,67</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 23,55</t>
+          <t>-57,37; 13,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,66; 158,19</t>
+          <t>14,65; 163,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,96; 260,0</t>
+          <t>68,28; 272,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 105,3</t>
+          <t>-71,14; 71,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 313,09</t>
+          <t>13,47; 321,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,04; 494,77</t>
+          <t>58,57; 458,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 17,64</t>
+          <t>-47,94; 19,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,84; 177,79</t>
+          <t>35,82; 170,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82,75; 261,76</t>
+          <t>86,6; 272,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,74</t>
+          <t>-0,7; 5,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,26</t>
+          <t>3,16; 10,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,66; 17,14</t>
+          <t>7,73; 17,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,72</t>
+          <t>-2,7; 2,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,4</t>
+          <t>-2,24; 3,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,78</t>
+          <t>-0,03; 4,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,44</t>
+          <t>-0,85; 3,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,08</t>
+          <t>1,41; 6,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 9,98</t>
+          <t>5,11; 9,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 123,02</t>
+          <t>-11,94; 125,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,77; 229,18</t>
+          <t>35,69; 219,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,58; 375,72</t>
+          <t>100,92; 369,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 76,12</t>
+          <t>-42,04; 75,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 92,37</t>
+          <t>-35,26; 96,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 153,46</t>
+          <t>-2,35; 141,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 76,9</t>
+          <t>-13,95; 76,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,31; 142,35</t>
+          <t>17,87; 133,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>74,18; 228,52</t>
+          <t>74,34; 221,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 3,95</t>
+          <t>-3,94; 3,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,67</t>
+          <t>0,5; 8,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,84; 16,79</t>
+          <t>9,01; 17,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 4,14</t>
+          <t>-4,11; 3,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,43; 11,25</t>
+          <t>2,48; 11,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,17</t>
+          <t>4,7; 11,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,83</t>
+          <t>-2,42; 3,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,65</t>
+          <t>2,61; 8,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,37</t>
+          <t>7,77; 13,36</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 79,32</t>
+          <t>-44,31; 68,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,35; 169,03</t>
+          <t>3,53; 181,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>89,14; 333,61</t>
+          <t>98,83; 356,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 63,17</t>
+          <t>-38,32; 55,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,31; 171,53</t>
+          <t>21,12; 155,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>35,07; 183,98</t>
+          <t>40,51; 177,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 42,99</t>
+          <t>-26,87; 47,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,32; 134,98</t>
+          <t>28,56; 135,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>81,68; 210,08</t>
+          <t>82,44; 211,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,52</t>
+          <t>-1,18; 7,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,86; 10,73</t>
+          <t>2,07; 10,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,56; 15,71</t>
+          <t>7,49; 15,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 7,94</t>
+          <t>-1,35; 8,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 9,63</t>
+          <t>-0,03; 10,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 18,73</t>
+          <t>-1,25; 18,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,41</t>
+          <t>-0,49; 6,48</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,2</t>
+          <t>2,22; 9,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,27; 15,82</t>
+          <t>4,73; 15,84</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 63,67</t>
+          <t>-8,17; 64,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>10,03; 89,34</t>
+          <t>12,4; 90,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>44,39; 133,73</t>
+          <t>44,18; 136,09</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 31,47</t>
+          <t>-4,58; 32,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 37,79</t>
+          <t>-0,24; 41,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 70,82</t>
+          <t>0,39; 71,69</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 32,4</t>
+          <t>-2,06; 31,52</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,43; 45,68</t>
+          <t>9,48; 46,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>20,06; 76,28</t>
+          <t>24,25; 76,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,42</t>
+          <t>-0,24; 2,48</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,93</t>
+          <t>3,81; 6,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,44</t>
+          <t>8,96; 12,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,62</t>
+          <t>-0,2; 2,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,06</t>
+          <t>2,98; 5,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,12</t>
+          <t>6,85; 10,14</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,99</t>
+          <t>0,16; 2,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,98</t>
+          <t>3,7; 6,01</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,77</t>
+          <t>8,21; 10,69</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 36,1</t>
+          <t>-3,37; 37,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>48,45; 104,15</t>
+          <t>47,44; 103,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>109,48; 185,74</t>
+          <t>113,53; 190,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 33,02</t>
+          <t>-2,48; 33,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>31,76; 76,65</t>
+          <t>31,07; 74,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>70,98; 126,56</t>
+          <t>71,77; 124,56</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,61; 26,51</t>
+          <t>1,79; 28,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>45,3; 80,16</t>
+          <t>42,87; 79,5</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>96,44; 143,38</t>
+          <t>96,85; 141,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,86</t>
+          <t>-2,74; 6,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,11</t>
+          <t>0,35; 7,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,13</t>
+          <t>-0,6; 4,79</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>189,54%</t>
+          <t>166,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>55,07%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,67; 165,78</t>
+          <t>-62,99; 234,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 792,79</t>
+          <t>6,2; 686,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 192,53</t>
+          <t>-25,68; 214,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>5,95</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,08</t>
+          <t>4,61; 14,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,56</t>
+          <t>0,32; 7,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,36</t>
+          <t>2,71; 8,9</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>122,21%</t>
+          <t>128,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>127,43%</t>
+          <t>101,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>114,43%</t>
+          <t>106,89%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 241,03</t>
+          <t>54,28; 252,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 290,46</t>
+          <t>7,19; 246,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,2; 193,34</t>
+          <t>45,03; 183,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>6,24</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 13,35</t>
+          <t>5,45; 13,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,17</t>
+          <t>1,4; 5,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,67</t>
+          <t>3,85; 8,56</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>149,6%</t>
+          <t>148,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>184,46%</t>
+          <t>169,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>158,05%</t>
+          <t>153,12%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,28; 272,89</t>
+          <t>68,99; 270,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,57; 458,13</t>
+          <t>44,01; 411,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,6; 272,73</t>
+          <t>80,77; 272,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,99</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>5,87</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 17,39</t>
+          <t>-0,41; 16,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,8</t>
+          <t>-0,24; 4,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,76</t>
+          <t>0,99; 8,98</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>212,82%</t>
+          <t>143,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>138,2%</t>
+          <t>107,6%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>100,92; 369,48</t>
+          <t>-4,13; 300,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 141,52</t>
+          <t>-4,67; 138,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>74,34; 221,88</t>
+          <t>25,37; 194,28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>12,97</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>10,64</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,01; 17,15</t>
+          <t>9,08; 17,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,91</t>
+          <t>4,57; 11,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,77; 13,36</t>
+          <t>7,79; 13,42</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>186,31%</t>
+          <t>187,55%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>135,52%</t>
+          <t>135,66%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>98,83; 356,55</t>
+          <t>99,83; 357,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>40,51; 177,11</t>
+          <t>39,37; 174,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>82,44; 211,19</t>
+          <t>82,79; 211,44</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>12,19</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>5,76</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 7,53</t>
+          <t>-2,61; 8,03</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,54</t>
+          <t>1,78; 12,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,49; 15,88</t>
+          <t>7,37; 17,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 8,14</t>
+          <t>-4,23; 8,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 10,44</t>
+          <t>-2,77; 9,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 18,62</t>
+          <t>-16,2; 12,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,48</t>
+          <t>-1,8; 7,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,18</t>
+          <t>0,27; 8,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,73; 15,84</t>
+          <t>-4,57; 13,06</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>134,28%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>35,88%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 64,31</t>
+          <t>-25,29; 110,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,4; 90,29</t>
+          <t>12,02; 172,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>44,18; 136,09</t>
+          <t>59,47; 273,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 32,02</t>
+          <t>-16,91; 45,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 41,85</t>
+          <t>-10,78; 53,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,39; 71,69</t>
+          <t>-63,01; 56,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 31,52</t>
+          <t>-9,93; 52,46</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,48; 46,18</t>
+          <t>1,57; 61,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>24,25; 76,32</t>
+          <t>-24,48; 88,08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>21,89</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>17,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,48</t>
+          <t>-4,97; 10,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,81</t>
+          <t>-1,87; 12,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,28</t>
+          <t>3,23; 17,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,7</t>
+          <t>-4,56; 11,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,98</t>
+          <t>-1,23; 14,89</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,14</t>
+          <t>15,35; 27,96</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,12</t>
+          <t>-3,07; 7,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,01</t>
+          <t>0,81; 11,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,21; 10,69</t>
+          <t>12,84; 22,07</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>144,67%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>60,37%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>118,75%</t>
+          <t>59,75%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-21,52; 61,79</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 77,56</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 108,06</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; 37,74</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 52,32</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>38,92; 95,64</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 30,33</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 45,56</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>39,7; 87,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>9,46</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,47</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>8,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 2,48</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 6,81</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 11,58</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 2,7</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 5,98</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 9,29</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 2,12</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 6,01</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 9,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>72,35%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>129,92%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>13,55%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>50,66%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>85,2%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>60,37%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>105,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-3,37; 37,52</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>47,44; 103,41</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>113,53; 190,41</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>85,45; 173,84</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-2,48; 33,63</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>31,07; 74,0</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>71,77; 124,56</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>52,88; 113,18</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>1,79; 28,32</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>42,87; 79,5</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>96,85; 141,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>75,93; 130,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,31</t>
+          <t>-4,49; -0,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,61</t>
+          <t>0,07; 6,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 6,37</t>
+          <t>-2,8; 6,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,46</t>
+          <t>0,06; 4,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,81</t>
+          <t>2,9; 8,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,12</t>
+          <t>0,22; 6,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,42</t>
+          <t>-1,65; 1,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,49</t>
+          <t>2,29; 6,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,79</t>
+          <t>-0,68; 4,34</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,3; -4,25</t>
+          <t>-87,23; 0,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 248,28</t>
+          <t>-5,65; 253,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 234,44</t>
+          <t>-66,26; 225,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 400,22</t>
+          <t>-6,03; 500,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,94; 877,73</t>
+          <t>94,73; 806,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 686,89</t>
+          <t>-2,84; 568,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,79; 68,02</t>
+          <t>-44,55; 73,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,52; 308,64</t>
+          <t>65,17; 327,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 214,08</t>
+          <t>-21,3; 201,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,02</t>
+          <t>-0,29; 5,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 7,12</t>
+          <t>0,36; 7,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 14,64</t>
+          <t>4,61; 14,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,04</t>
+          <t>-1,83; 3,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,94</t>
+          <t>0,96; 6,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 7,31</t>
+          <t>0,23; 7,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,91</t>
+          <t>-0,21; 3,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,57</t>
+          <t>1,49; 5,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,9</t>
+          <t>2,64; 8,93</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 104,36</t>
+          <t>-4,84; 106,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 124,47</t>
+          <t>3,63; 120,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,28; 252,66</t>
+          <t>54,32; 236,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 105,41</t>
+          <t>-37,06; 112,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 226,44</t>
+          <t>14,08; 210,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 246,67</t>
+          <t>-0,45; 252,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 83,16</t>
+          <t>-3,1; 78,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 117,54</t>
+          <t>20,83; 112,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,03; 183,72</t>
+          <t>41,34; 185,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,65</t>
+          <t>-4,31; 0,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,78</t>
+          <t>1,71; 7,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 13,31</t>
+          <t>5,62; 12,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,96</t>
+          <t>-1,99; 0,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,29</t>
+          <t>0,57; 4,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,84</t>
+          <t>1,48; 5,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,57</t>
+          <t>-2,48; 0,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,44</t>
+          <t>1,79; 5,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,56</t>
+          <t>3,84; 8,31</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,37; 13,02</t>
+          <t>-53,75; 20,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,65; 163,91</t>
+          <t>21,18; 157,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,99; 270,67</t>
+          <t>68,79; 270,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 71,83</t>
+          <t>-69,93; 83,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,47; 321,26</t>
+          <t>9,72; 324,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,01; 411,47</t>
+          <t>38,64; 409,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 19,77</t>
+          <t>-50,1; 19,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,82; 170,44</t>
+          <t>35,58; 169,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,77; 272,36</t>
+          <t>78,55; 253,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,69</t>
+          <t>-0,69; 5,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,11</t>
+          <t>3,24; 10,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 16,04</t>
+          <t>-1,08; 15,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,62</t>
+          <t>-2,72; 2,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,36</t>
+          <t>-2,05; 3,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,75</t>
+          <t>-0,43; 4,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,36</t>
+          <t>-0,92; 3,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,02</t>
+          <t>1,31; 5,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,98</t>
+          <t>0,62; 8,73</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 125,37</t>
+          <t>-11,49; 136,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,69; 219,07</t>
+          <t>37,15; 247,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 300,87</t>
+          <t>-10,21; 299,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 75,49</t>
+          <t>-45,29; 77,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 96,9</t>
+          <t>-32,61; 96,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 138,91</t>
+          <t>-9,28; 127,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 76,72</t>
+          <t>-14,72; 73,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,87; 133,35</t>
+          <t>21,09; 137,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,37; 194,28</t>
+          <t>24,65; 191,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,6</t>
+          <t>-3,67; 3,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 8,86</t>
+          <t>0,92; 8,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,08; 17,28</t>
+          <t>8,76; 17,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,66</t>
+          <t>-3,96; 3,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 11,02</t>
+          <t>2,19; 11,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,77</t>
+          <t>4,05; 11,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,05</t>
+          <t>-2,68; 2,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,83</t>
+          <t>2,33; 8,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,42</t>
+          <t>7,97; 13,28</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,31; 68,68</t>
+          <t>-41,17; 73,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,53; 181,73</t>
+          <t>6,7; 170,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>99,83; 357,01</t>
+          <t>88,6; 352,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 55,97</t>
+          <t>-37,08; 57,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,12; 155,62</t>
+          <t>17,19; 165,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>39,37; 174,76</t>
+          <t>35,9; 179,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 47,54</t>
+          <t>-29,62; 40,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>28,56; 135,48</t>
+          <t>23,55; 133,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>82,79; 211,44</t>
+          <t>85,06; 209,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 8,03</t>
+          <t>-2,55; 8,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,78; 12,62</t>
+          <t>1,92; 12,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,37; 17,36</t>
+          <t>7,59; 17,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 8,23</t>
+          <t>-4,54; 8,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 9,95</t>
+          <t>-2,99; 9,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 12,15</t>
+          <t>-14,74; 13,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 7,16</t>
+          <t>-2,11; 6,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,27; 8,55</t>
+          <t>0,07; 8,89</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 13,06</t>
+          <t>-4,93; 12,91</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 110,06</t>
+          <t>-22,85; 117,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,02; 172,15</t>
+          <t>14,32; 185,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>59,47; 273,23</t>
+          <t>59,55; 254,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 45,74</t>
+          <t>-18,66; 44,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 53,11</t>
+          <t>-12,41; 48,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-63,01; 56,98</t>
+          <t>-59,0; 63,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 52,46</t>
+          <t>-11,79; 45,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,57; 61,65</t>
+          <t>0,34; 64,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 88,08</t>
+          <t>-26,85; 85,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 10,49</t>
+          <t>-5,4; 10,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 12,77</t>
+          <t>-1,82; 13,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,23; 17,38</t>
+          <t>3,43; 17,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 11,0</t>
+          <t>-4,3; 10,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 14,89</t>
+          <t>-2,26; 13,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,35; 27,96</t>
+          <t>15,4; 27,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 7,9</t>
+          <t>-2,76; 8,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,81; 11,69</t>
+          <t>-0,12; 11,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,84; 22,07</t>
+          <t>12,4; 21,83</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 61,79</t>
+          <t>-23,2; 56,89</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 77,56</t>
+          <t>-7,33; 82,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>11,71; 108,06</t>
+          <t>13,03; 109,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 37,74</t>
+          <t>-11,29; 34,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 52,32</t>
+          <t>-5,8; 44,99</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>38,92; 95,64</t>
+          <t>39,63; 95,3</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 30,33</t>
+          <t>-8,78; 32,61</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,55; 45,56</t>
+          <t>-0,24; 45,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>39,7; 87,81</t>
+          <t>38,25; 84,6</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,48</t>
+          <t>-0,29; 2,47</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,81</t>
+          <t>3,83; 6,94</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,58</t>
+          <t>5,45; 11,56</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,7</t>
+          <t>-0,36; 2,59</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,98</t>
+          <t>2,91; 6,0</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,29</t>
+          <t>4,28; 9,3</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,12</t>
+          <t>0,07; 2,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,01</t>
+          <t>3,75; 5,85</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,87</t>
+          <t>6,19; 9,98</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 37,52</t>
+          <t>-3,68; 36,48</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>47,44; 103,41</t>
+          <t>47,33; 102,2</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>85,45; 173,84</t>
+          <t>74,99; 171,77</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,63</t>
+          <t>-3,77; 32,41</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>31,07; 74,0</t>
+          <t>30,85; 75,35</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>52,88; 113,18</t>
+          <t>46,84; 112,7</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>1,79; 28,32</t>
+          <t>0,53; 26,89</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>42,87; 79,5</t>
+          <t>44,27; 77,23</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>75,93; 130,08</t>
+          <t>74,99; 130,52</t>
         </is>
       </c>
     </row>
